--- a/biology/Histoire de la zoologie et de la botanique/Eleanor_Anne_Ormerod/Eleanor_Anne_Ormerod.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Eleanor_Anne_Ormerod/Eleanor_Anne_Ormerod.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eleanor Anne Ormerod est une entomologiste britannique, née le 11 mai 1828 à Sedbury, Gloucester et morte le 19 juillet 1901 à St Albans, Hertfordshire.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est la troisième fille de l’historien George Ormerod (en) (1785-1873) et la sœur du géologue George Wareing Ormerod (1810-1891). Après avoir étudié chez elle, elle se consacre à l’étude des insectes. Elle s’intéresse principalement à l’étude des méthodes pour prévenir les dommages causés par les insectes nuisibles. Elle est consultante auprès de la Société royale d'agriculture (qui lui a attribué la médaille Flora) et de l’université d'Édimbourg. Elle est la première femme à recevoir un titre de docteur honorifique par l’université d’Édimbourg en 1900. Elle reçoit également la médaille d’argent de la Société nationale d'acclimatation de France en 1899.
 </t>
@@ -542,7 +556,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Report of observations of attack of turnip fly in 1881 (1882) ;
 Manual of injurious insects with methods of prevention and remedy for their attacks to food crops, forest trees and fruit: to which is appended a short introduction to entomology (1890) ;
